--- a/va_facility_data_2025-02-20/Deltona VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Deltona%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Deltona VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Deltona%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R3f8dd919b1374c58b8bb92dbd58138ac"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R43e8a3c2847945239316bf68844acaaa"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R48f229a246d64317a3539e7e693113a3"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Re77da999a10b47139e948a59cc08bb13"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rbaea561e1a9f4a6ea91b7c4a6ce23183"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R751ef29dce454649b67299fb5bab53f0"/>
   </x:sheets>
 </x:workbook>
 </file>
